--- a/CodeVS/data/output/tugboat_schedule_algorithm_ODR_006.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ODR_006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Travel To Carrier</t>
   </si>
   <si>
-    <t>Sea-Sea</t>
+    <t>Sea-Sea Empty Barges</t>
   </si>
   <si>
     <t>Start Order Carrier</t>
@@ -127,7 +127,7 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Sea-River</t>
+    <t>Sea-River Load Barges</t>
   </si>
   <si>
     <t>Barge Release</t>
@@ -145,7 +145,7 @@
     <t>Customer Station</t>
   </si>
   <si>
-    <t>River-River</t>
+    <t>River-River Load Barges</t>
   </si>
   <si>
     <t>Loader-Customer</t>
@@ -271,9 +271,6 @@
     <t>From Bang Hua Suea To PR NKL L, Sinwatthana NKL L</t>
   </si>
   <si>
-    <t>stop at ST_014</t>
-  </si>
-  <si>
     <t>ST_014 to ST_015</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>ST_023 to ST_024</t>
   </si>
   <si>
-    <t>stop at ST_024</t>
-  </si>
-  <si>
     <t>ST_024 to ST_025</t>
   </si>
   <si>
@@ -325,9 +319,6 @@
     <t>ST_029 to ST_030</t>
   </si>
   <si>
-    <t>stop at ST_030</t>
-  </si>
-  <si>
     <t>ST_030 to ST_031</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>release_point</t>
   </si>
   <si>
-    <t>water_level_point</t>
-  </si>
-  <si>
     <t>B_075,B_089,B_031</t>
   </si>
   <si>
@@ -445,10 +433,10 @@
     <t>B_025,B_078,B_075,B_089</t>
   </si>
   <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A26F8650&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A2523B00&gt;], 'exit_datetime': datetime.datetime(2025, 1, 25, 11, 15)}</t>
-  </si>
-  <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A26F8650&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A2520590&gt;], 'exit_datetime': datetime.datetime(2025, 1, 25, 11, 15)}</t>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B742D5C590&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B742D11130&gt;], 'exit_datetime': datetime.datetime(2025, 1, 25, 11, 15)}</t>
+  </si>
+  <si>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B742D5C590&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B7451D6600&gt;], 'exit_datetime': datetime.datetime(2025, 1, 25, 11, 15)}</t>
   </si>
   <si>
     <t>ST_001</t>
@@ -951,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X99"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1090,13 +1078,13 @@
         <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W2" t="s">
         <v>26</v>
       </c>
       <c r="X2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1131,13 +1119,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N3">
         <v>1200</v>
@@ -1158,19 +1146,19 @@
         <v>45682.47569444445</v>
       </c>
       <c r="T3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W3" t="s">
         <v>26</v>
       </c>
       <c r="X3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1205,13 +1193,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N4">
         <v>400</v>
@@ -1232,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W4" t="s">
         <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1276,13 +1264,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N5">
         <v>800</v>
@@ -1303,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W5" t="s">
         <v>26</v>
       </c>
       <c r="X5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1347,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>127</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>131</v>
       </c>
       <c r="N6">
         <v>1200</v>
@@ -1374,16 +1362,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W6" t="s">
         <v>26</v>
       </c>
       <c r="X6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1418,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1445,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W7" t="s">
         <v>26</v>
       </c>
       <c r="X7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1489,14 +1477,14 @@
         <v>9.20655737704918</v>
       </c>
       <c r="K8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>127</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>131</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -1516,16 +1504,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W8" t="s">
         <v>26</v>
       </c>
       <c r="X8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1560,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N9">
         <v>8550</v>
@@ -1587,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W9" t="s">
         <v>26</v>
       </c>
       <c r="X9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1631,13 +1619,13 @@
         <v>270</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N10">
         <v>3150</v>
@@ -1658,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W10" t="s">
         <v>26</v>
       </c>
       <c r="X10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1702,13 +1690,13 @@
         <v>250</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N11">
         <v>2900</v>
@@ -1729,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W11" t="s">
         <v>26</v>
       </c>
       <c r="X11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1773,13 +1761,13 @@
         <v>250</v>
       </c>
       <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
         <v>128</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
-        <v>132</v>
       </c>
       <c r="N12">
         <v>2500</v>
@@ -1800,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W12" t="s">
         <v>26</v>
       </c>
       <c r="X12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1844,13 +1832,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>8550</v>
@@ -1871,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
       </c>
       <c r="X13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1915,13 +1903,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>127</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>131</v>
       </c>
       <c r="N14">
         <v>8550</v>
@@ -1942,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W14" t="s">
         <v>26</v>
       </c>
       <c r="X14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1986,13 +1974,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>127</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>131</v>
       </c>
       <c r="N15">
         <v>8550</v>
@@ -2013,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W15" t="s">
         <v>26</v>
       </c>
       <c r="X15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2057,13 +2045,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>127</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>131</v>
       </c>
       <c r="N16">
         <v>8550</v>
@@ -2084,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="V16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W16" t="s">
         <v>26</v>
       </c>
       <c r="X16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -2128,13 +2116,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>127</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>131</v>
       </c>
       <c r="N17">
         <v>8550</v>
@@ -2155,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="V17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W17" t="s">
         <v>26</v>
       </c>
       <c r="X17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2199,13 +2187,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>127</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>131</v>
       </c>
       <c r="N18">
         <v>8550</v>
@@ -2226,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W18" t="s">
         <v>26</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2270,13 +2258,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>127</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>131</v>
       </c>
       <c r="N19">
         <v>8550</v>
@@ -2297,16 +2285,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W19" t="s">
         <v>26</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2341,13 +2329,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
         <v>127</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>131</v>
       </c>
       <c r="N20">
         <v>8550</v>
@@ -2368,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W20" t="s">
         <v>26</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2412,13 +2400,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>127</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>131</v>
       </c>
       <c r="N21">
         <v>8550</v>
@@ -2439,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W21" t="s">
         <v>26</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2483,13 +2471,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>127</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>131</v>
       </c>
       <c r="N22">
         <v>8550</v>
@@ -2510,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W22" t="s">
         <v>26</v>
       </c>
       <c r="X22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2554,13 +2542,13 @@
         <v>6.40327868852459</v>
       </c>
       <c r="K23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>127</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>131</v>
       </c>
       <c r="N23">
         <v>8550</v>
@@ -2581,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W23" t="s">
         <v>26</v>
       </c>
       <c r="X23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2625,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2652,13 +2640,13 @@
         <v>28</v>
       </c>
       <c r="V24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W24" t="s">
         <v>26</v>
       </c>
       <c r="X24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2693,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N25">
         <v>6050</v>
@@ -2723,13 +2711,13 @@
         <v>28</v>
       </c>
       <c r="V25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W25" t="s">
         <v>26</v>
       </c>
       <c r="X25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2764,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N26">
         <v>2900</v>
@@ -2794,13 +2782,13 @@
         <v>28</v>
       </c>
       <c r="V26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W26" t="s">
         <v>26</v>
       </c>
       <c r="X26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2835,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2862,13 +2850,13 @@
         <v>28</v>
       </c>
       <c r="V27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W27" t="s">
         <v>26</v>
       </c>
       <c r="X27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2903,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2930,13 +2918,13 @@
         <v>28</v>
       </c>
       <c r="V28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W28" t="s">
         <v>26</v>
       </c>
       <c r="X28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2971,13 +2959,13 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N29">
         <v>800</v>
@@ -2998,19 +2986,19 @@
         <v>45682.47569444445</v>
       </c>
       <c r="T29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U29" t="s">
         <v>28</v>
       </c>
       <c r="V29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W29" t="s">
         <v>26</v>
       </c>
       <c r="X29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3045,13 +3033,13 @@
         <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N30">
         <v>400</v>
@@ -3072,16 +3060,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W30" t="s">
         <v>26</v>
       </c>
       <c r="X30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3116,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N31">
         <v>800</v>
@@ -3143,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W31" t="s">
         <v>26</v>
       </c>
       <c r="X31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3187,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3214,16 +3202,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
       </c>
       <c r="X32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3258,13 +3246,13 @@
         <v>10.47619047619048</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3285,16 +3273,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W33" t="s">
         <v>26</v>
       </c>
       <c r="X33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3329,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N34">
         <v>2750</v>
@@ -3356,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W34" t="s">
         <v>26</v>
       </c>
       <c r="X34" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3400,13 +3388,13 @@
         <v>230</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N35">
         <v>2600</v>
@@ -3427,16 +3415,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W35" t="s">
         <v>26</v>
       </c>
       <c r="X35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3471,13 +3459,13 @@
         <v>230</v>
       </c>
       <c r="K36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N36">
         <v>150</v>
@@ -3498,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V36" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W36" t="s">
         <v>26</v>
       </c>
       <c r="X36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3542,13 +3530,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N37">
         <v>2750</v>
@@ -3569,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W37" t="s">
         <v>26</v>
       </c>
       <c r="X37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3613,13 +3601,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N38">
         <v>2750</v>
@@ -3640,16 +3628,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W38" t="s">
         <v>26</v>
       </c>
       <c r="X38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3684,13 +3672,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N39">
         <v>2750</v>
@@ -3711,16 +3699,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W39" t="s">
         <v>26</v>
       </c>
       <c r="X39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3755,13 +3743,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N40">
         <v>2750</v>
@@ -3782,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="V40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W40" t="s">
         <v>26</v>
       </c>
       <c r="X40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3826,13 +3814,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N41">
         <v>2750</v>
@@ -3853,16 +3841,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="V41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W41" t="s">
         <v>26</v>
       </c>
       <c r="X41" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3897,13 +3885,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N42">
         <v>2750</v>
@@ -3924,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W42" t="s">
         <v>26</v>
       </c>
       <c r="X42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3968,13 +3956,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N43">
         <v>2750</v>
@@ -3995,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W43" t="s">
         <v>26</v>
       </c>
       <c r="X43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4039,13 +4027,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N44">
         <v>2750</v>
@@ -4066,16 +4054,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W44" t="s">
         <v>26</v>
       </c>
       <c r="X44" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4110,13 +4098,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N45">
         <v>2750</v>
@@ -4137,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W45" t="s">
         <v>26</v>
       </c>
       <c r="X45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4181,13 +4169,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N46">
         <v>2750</v>
@@ -4208,16 +4196,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V46" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W46" t="s">
         <v>26</v>
       </c>
       <c r="X46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4252,13 +4240,13 @@
         <v>9.821428571428571</v>
       </c>
       <c r="K47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N47">
         <v>2750</v>
@@ -4279,16 +4267,16 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W47" t="s">
         <v>26</v>
       </c>
       <c r="X47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4323,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -4350,13 +4338,13 @@
         <v>28</v>
       </c>
       <c r="V48" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W48" t="s">
         <v>26</v>
       </c>
       <c r="X48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4391,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N49">
         <v>150</v>
@@ -4421,13 +4409,13 @@
         <v>28</v>
       </c>
       <c r="V49" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W49" t="s">
         <v>26</v>
       </c>
       <c r="X49" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4462,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4489,13 +4477,13 @@
         <v>28</v>
       </c>
       <c r="V50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W50" t="s">
         <v>26</v>
       </c>
       <c r="X50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4530,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -4557,13 +4545,13 @@
         <v>28</v>
       </c>
       <c r="V51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W51" t="s">
         <v>26</v>
       </c>
       <c r="X51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4598,13 +4586,13 @@
         <v>12</v>
       </c>
       <c r="K52" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N52">
         <v>11300</v>
@@ -4628,13 +4616,13 @@
         <v>28</v>
       </c>
       <c r="V52" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W52" t="s">
         <v>26</v>
       </c>
       <c r="X52" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4669,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N53">
         <v>2600</v>
@@ -4699,13 +4687,13 @@
         <v>28</v>
       </c>
       <c r="V53" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W53" t="s">
         <v>26</v>
       </c>
       <c r="X53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4740,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N54">
         <v>2750</v>
@@ -4770,13 +4758,13 @@
         <v>28</v>
       </c>
       <c r="V54" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W54" t="s">
         <v>26</v>
       </c>
       <c r="X54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4811,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N55">
         <v>5250</v>
@@ -4841,13 +4829,13 @@
         <v>28</v>
       </c>
       <c r="V55" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W55" t="s">
         <v>26</v>
       </c>
       <c r="X55" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4882,13 +4870,13 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N56">
         <v>8400</v>
@@ -4912,13 +4900,13 @@
         <v>28</v>
       </c>
       <c r="V56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W56" t="s">
         <v>26</v>
       </c>
       <c r="X56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -4953,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N57">
         <v>11300</v>
@@ -4983,13 +4971,13 @@
         <v>28</v>
       </c>
       <c r="V57" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W57" t="s">
         <v>26</v>
       </c>
       <c r="X57" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -5024,13 +5012,13 @@
         <v>4.675</v>
       </c>
       <c r="K58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N58">
         <v>11300</v>
@@ -5054,13 +5042,13 @@
         <v>28</v>
       </c>
       <c r="V58" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W58" t="s">
         <v>26</v>
       </c>
       <c r="X58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5080,28 +5068,28 @@
         <v>45684.1452577243</v>
       </c>
       <c r="F59" s="2">
-        <v>45684.1452577243</v>
+        <v>45684.18982100417</v>
       </c>
       <c r="G59">
         <v>16.06951871666666</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>4.675</v>
       </c>
       <c r="K59" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N59">
         <v>11300</v>
@@ -5125,13 +5113,13 @@
         <v>28</v>
       </c>
       <c r="V59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W59" t="s">
         <v>26</v>
       </c>
       <c r="X59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5145,34 +5133,34 @@
         <v>86</v>
       </c>
       <c r="D60" s="2">
-        <v>45684.1452577243</v>
+        <v>45684.18982100417</v>
       </c>
       <c r="E60" s="2">
-        <v>45684.1452577243</v>
+        <v>45684.18982100417</v>
       </c>
       <c r="F60" s="2">
-        <v>45684.18982100417</v>
+        <v>45684.20764631611</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1.06951871657754</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>4.675</v>
       </c>
       <c r="K60" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N60">
         <v>11300</v>
@@ -5193,16 +5181,16 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="V60" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W60" t="s">
         <v>26</v>
       </c>
       <c r="X60" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5216,13 +5204,13 @@
         <v>87</v>
       </c>
       <c r="D61" s="2">
-        <v>45684.18982100417</v>
+        <v>45684.20764631611</v>
       </c>
       <c r="E61" s="2">
-        <v>45684.18982100417</v>
+        <v>45684.20764631611</v>
       </c>
       <c r="F61" s="2">
-        <v>45684.20764631611</v>
+        <v>45684.22547162806</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5237,13 +5225,13 @@
         <v>4.675</v>
       </c>
       <c r="K61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N61">
         <v>11300</v>
@@ -5264,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W61" t="s">
         <v>26</v>
       </c>
       <c r="X61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5287,34 +5275,34 @@
         <v>88</v>
       </c>
       <c r="D62" s="2">
-        <v>45684.20764631611</v>
+        <v>45684.22547162806</v>
       </c>
       <c r="E62" s="2">
-        <v>45684.20764631611</v>
+        <v>45684.22547162806</v>
       </c>
       <c r="F62" s="2">
-        <v>45684.22547162806</v>
+        <v>45684.23438428403</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0.427807486631016</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="J62">
         <v>4.675</v>
       </c>
       <c r="K62" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N62">
         <v>11300</v>
@@ -5335,16 +5323,16 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V62" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W62" t="s">
         <v>26</v>
       </c>
       <c r="X62" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5358,34 +5346,34 @@
         <v>89</v>
       </c>
       <c r="D63" s="2">
-        <v>45684.22547162806</v>
+        <v>45684.23438428403</v>
       </c>
       <c r="E63" s="2">
-        <v>45684.22547162806</v>
+        <v>45684.23438428403</v>
       </c>
       <c r="F63" s="2">
-        <v>45684.23438428403</v>
+        <v>45684.27003490792</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>0.213903743315508</v>
+        <v>0.8556149732620321</v>
       </c>
       <c r="J63">
         <v>4.675</v>
       </c>
       <c r="K63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N63">
         <v>11300</v>
@@ -5406,16 +5394,16 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V63" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W63" t="s">
         <v>26</v>
       </c>
       <c r="X63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5429,34 +5417,34 @@
         <v>90</v>
       </c>
       <c r="D64" s="2">
-        <v>45684.23438428403</v>
+        <v>45684.27003490792</v>
       </c>
       <c r="E64" s="2">
-        <v>45684.23438428403</v>
+        <v>45684.27003490792</v>
       </c>
       <c r="F64" s="2">
-        <v>45684.27003490792</v>
+        <v>45684.28786021986</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0.8556149732620321</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="J64">
         <v>4.675</v>
       </c>
       <c r="K64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N64">
         <v>11300</v>
@@ -5477,16 +5465,16 @@
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V64" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W64" t="s">
         <v>26</v>
       </c>
       <c r="X64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5500,34 +5488,34 @@
         <v>91</v>
       </c>
       <c r="D65" s="2">
-        <v>45684.27003490792</v>
+        <v>45684.28786021986</v>
       </c>
       <c r="E65" s="2">
-        <v>45684.27003490792</v>
+        <v>45684.28786021986</v>
       </c>
       <c r="F65" s="2">
-        <v>45684.28786021986</v>
+        <v>45684.31459818778</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>0.427807486631016</v>
+        <v>0.6417112299465241</v>
       </c>
       <c r="J65">
         <v>4.675</v>
       </c>
       <c r="K65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N65">
         <v>11300</v>
@@ -5548,16 +5536,16 @@
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W65" t="s">
         <v>26</v>
       </c>
       <c r="X65" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5571,34 +5559,34 @@
         <v>92</v>
       </c>
       <c r="D66" s="2">
-        <v>45684.28786021986</v>
+        <v>45684.31459818778</v>
       </c>
       <c r="E66" s="2">
-        <v>45684.28786021986</v>
+        <v>45684.31459818778</v>
       </c>
       <c r="F66" s="2">
-        <v>45684.31459818778</v>
+        <v>45684.35024881166</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0.6417112299465241</v>
+        <v>0.8556149732620321</v>
       </c>
       <c r="J66">
         <v>4.675</v>
       </c>
       <c r="K66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N66">
         <v>11300</v>
@@ -5619,16 +5607,16 @@
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V66" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W66" t="s">
         <v>26</v>
       </c>
       <c r="X66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5642,34 +5630,34 @@
         <v>93</v>
       </c>
       <c r="D67" s="2">
-        <v>45684.31459818778</v>
+        <v>45684.35024881166</v>
       </c>
       <c r="E67" s="2">
-        <v>45684.31459818778</v>
+        <v>45684.35024881166</v>
       </c>
       <c r="F67" s="2">
-        <v>45684.35024881166</v>
+        <v>45684.44828802735</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I67">
-        <v>0.8556149732620321</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="J67">
         <v>4.675</v>
       </c>
       <c r="K67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N67">
         <v>11300</v>
@@ -5690,16 +5678,16 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V67" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W67" t="s">
         <v>26</v>
       </c>
       <c r="X67" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5713,34 +5701,34 @@
         <v>94</v>
       </c>
       <c r="D68" s="2">
-        <v>45684.35024881166</v>
+        <v>45684.44828802735</v>
       </c>
       <c r="E68" s="2">
-        <v>45684.35024881166</v>
+        <v>45684.44828802735</v>
       </c>
       <c r="F68" s="2">
-        <v>45684.44828802735</v>
+        <v>45684.45720068332</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2.352941176470588</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="J68">
         <v>4.675</v>
       </c>
       <c r="K68" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N68">
         <v>11300</v>
@@ -5761,16 +5749,16 @@
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="V68" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W68" t="s">
         <v>26</v>
       </c>
       <c r="X68" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -5784,34 +5772,34 @@
         <v>95</v>
       </c>
       <c r="D69" s="2">
-        <v>45684.44828802735</v>
+        <v>45684.45720068332</v>
       </c>
       <c r="E69" s="2">
-        <v>45684.44828802735</v>
+        <v>45685.31103312539</v>
       </c>
       <c r="F69" s="2">
-        <v>45684.45720068332</v>
+        <v>45685.4981989008</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>20.49197860972222</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I69">
-        <v>0.213903743315508</v>
+        <v>4.491978609625669</v>
       </c>
       <c r="J69">
         <v>4.675</v>
       </c>
       <c r="K69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N69">
         <v>11300</v>
@@ -5832,16 +5820,16 @@
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W69" t="s">
         <v>26</v>
       </c>
       <c r="X69" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -5855,34 +5843,34 @@
         <v>96</v>
       </c>
       <c r="D70" s="2">
-        <v>45684.45720068332</v>
+        <v>45685.4981989008</v>
       </c>
       <c r="E70" s="2">
-        <v>45685.31103312539</v>
+        <v>45685.4981989008</v>
       </c>
       <c r="F70" s="2">
-        <v>45685.31103312539</v>
+        <v>45685.51602421275</v>
       </c>
       <c r="G70">
-        <v>20.49197860972222</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>4.675</v>
       </c>
       <c r="K70" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N70">
         <v>11300</v>
@@ -5903,16 +5891,16 @@
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="V70" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W70" t="s">
         <v>26</v>
       </c>
       <c r="X70" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -5926,34 +5914,34 @@
         <v>97</v>
       </c>
       <c r="D71" s="2">
-        <v>45685.31103312539</v>
+        <v>45685.51602421275</v>
       </c>
       <c r="E71" s="2">
-        <v>45685.31103312539</v>
+        <v>45685.51602421275</v>
       </c>
       <c r="F71" s="2">
-        <v>45685.4981989008</v>
+        <v>45685.56950014857</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I71">
-        <v>4.491978609625669</v>
+        <v>1.283422459893048</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>4.675</v>
       </c>
       <c r="K71" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N71">
         <v>11300</v>
@@ -5974,16 +5962,16 @@
         <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W71" t="s">
         <v>26</v>
       </c>
       <c r="X71" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -5997,34 +5985,34 @@
         <v>98</v>
       </c>
       <c r="D72" s="2">
-        <v>45685.4981989008</v>
+        <v>45685.56950014857</v>
       </c>
       <c r="E72" s="2">
-        <v>45685.4981989008</v>
+        <v>45685.56950014857</v>
       </c>
       <c r="F72" s="2">
-        <v>45685.51602421275</v>
+        <v>45685.66753936426</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I72">
-        <v>0.427807486631016</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="J72">
         <v>4.675</v>
       </c>
       <c r="K72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N72">
         <v>11300</v>
@@ -6045,16 +6033,16 @@
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V72" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W72" t="s">
         <v>26</v>
       </c>
       <c r="X72" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6068,34 +6056,34 @@
         <v>99</v>
       </c>
       <c r="D73" s="2">
-        <v>45685.51602421275</v>
+        <v>45685.66753936426</v>
       </c>
       <c r="E73" s="2">
-        <v>45685.51602421275</v>
+        <v>45685.66753936426</v>
       </c>
       <c r="F73" s="2">
-        <v>45685.56950014857</v>
+        <v>45685.69427733218</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>1.283422459893048</v>
+        <v>0.6417112299465241</v>
       </c>
       <c r="J73">
         <v>4.675</v>
       </c>
       <c r="K73" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N73">
         <v>11300</v>
@@ -6116,16 +6104,16 @@
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V73" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W73" t="s">
         <v>26</v>
       </c>
       <c r="X73" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6139,34 +6127,34 @@
         <v>100</v>
       </c>
       <c r="D74" s="2">
-        <v>45685.56950014857</v>
+        <v>45685.69427733218</v>
       </c>
       <c r="E74" s="2">
-        <v>45685.56950014857</v>
+        <v>45685.69427733218</v>
       </c>
       <c r="F74" s="2">
-        <v>45685.66753936426</v>
+        <v>45685.72101530009</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>2.352941176470588</v>
+        <v>0.6417112299465241</v>
       </c>
       <c r="J74">
         <v>4.675</v>
       </c>
       <c r="K74" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N74">
         <v>11300</v>
@@ -6187,16 +6175,16 @@
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V74" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W74" t="s">
         <v>26</v>
       </c>
       <c r="X74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6210,34 +6198,34 @@
         <v>101</v>
       </c>
       <c r="D75" s="2">
-        <v>45685.66753936426</v>
+        <v>45685.72101530009</v>
       </c>
       <c r="E75" s="2">
-        <v>45685.66753936426</v>
+        <v>45686.92912581703</v>
       </c>
       <c r="F75" s="2">
-        <v>45685.69427733218</v>
+        <v>45687.05390300063</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>28.99465240638889</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I75">
-        <v>0.6417112299465241</v>
+        <v>2.994652406417112</v>
       </c>
       <c r="J75">
         <v>4.675</v>
       </c>
       <c r="K75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N75">
         <v>11300</v>
@@ -6258,16 +6246,16 @@
         <v>0</v>
       </c>
       <c r="U75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V75" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W75" t="s">
         <v>26</v>
       </c>
       <c r="X75" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6281,34 +6269,34 @@
         <v>102</v>
       </c>
       <c r="D76" s="2">
-        <v>45685.69427733218</v>
+        <v>45687.05390300063</v>
       </c>
       <c r="E76" s="2">
-        <v>45685.69427733218</v>
+        <v>45687.05390300063</v>
       </c>
       <c r="F76" s="2">
-        <v>45685.72101530009</v>
+        <v>45687.07172831257</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0.6417112299465241</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="J76">
         <v>4.675</v>
       </c>
       <c r="K76" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N76">
         <v>11300</v>
@@ -6329,16 +6317,16 @@
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V76" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W76" t="s">
         <v>26</v>
       </c>
       <c r="X76" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6352,34 +6340,34 @@
         <v>103</v>
       </c>
       <c r="D77" s="2">
-        <v>45685.72101530009</v>
+        <v>45687.07172831257</v>
       </c>
       <c r="E77" s="2">
-        <v>45686.92912581703</v>
+        <v>45687.07172831257</v>
       </c>
       <c r="F77" s="2">
-        <v>45686.92912581703</v>
+        <v>45687.08955362452</v>
       </c>
       <c r="G77">
-        <v>28.99465240638889</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>4.675</v>
       </c>
       <c r="K77" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N77">
         <v>11300</v>
@@ -6400,16 +6388,16 @@
         <v>0</v>
       </c>
       <c r="U77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="V77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W77" t="s">
         <v>26</v>
       </c>
       <c r="X77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6423,34 +6411,34 @@
         <v>104</v>
       </c>
       <c r="D78" s="2">
-        <v>45686.92912581703</v>
+        <v>45687.08955362452</v>
       </c>
       <c r="E78" s="2">
-        <v>45686.92912581703</v>
+        <v>45687.08955362452</v>
       </c>
       <c r="F78" s="2">
-        <v>45687.05390300063</v>
+        <v>45687.10737893646</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2.994652406417112</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>4.675</v>
       </c>
       <c r="K78" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N78">
         <v>11300</v>
@@ -6471,16 +6459,16 @@
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V78" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W78" t="s">
         <v>26</v>
       </c>
       <c r="X78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6494,34 +6482,34 @@
         <v>105</v>
       </c>
       <c r="D79" s="2">
-        <v>45687.05390300063</v>
+        <v>45687.10737893646</v>
       </c>
       <c r="E79" s="2">
-        <v>45687.05390300063</v>
+        <v>45687.10737893646</v>
       </c>
       <c r="F79" s="2">
-        <v>45687.07172831257</v>
+        <v>45687.16976752826</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I79">
-        <v>0.427807486631016</v>
+        <v>1.497326203208556</v>
       </c>
       <c r="J79">
         <v>4.675</v>
       </c>
       <c r="K79" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N79">
         <v>11300</v>
@@ -6542,16 +6530,16 @@
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V79" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W79" t="s">
         <v>26</v>
       </c>
       <c r="X79" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6565,34 +6553,34 @@
         <v>106</v>
       </c>
       <c r="D80" s="2">
-        <v>45687.07172831257</v>
+        <v>45687.16976752826</v>
       </c>
       <c r="E80" s="2">
-        <v>45687.07172831257</v>
+        <v>45687.16976752826</v>
       </c>
       <c r="F80" s="2">
-        <v>45687.08955362452</v>
+        <v>45687.25889408797</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I80">
-        <v>0.427807486631016</v>
+        <v>2.13903743315508</v>
       </c>
       <c r="J80">
         <v>4.675</v>
       </c>
       <c r="K80" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N80">
         <v>11300</v>
@@ -6613,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V80" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W80" t="s">
         <v>26</v>
       </c>
       <c r="X80" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6636,13 +6624,13 @@
         <v>107</v>
       </c>
       <c r="D81" s="2">
-        <v>45687.08955362452</v>
+        <v>45687.25889408797</v>
       </c>
       <c r="E81" s="2">
-        <v>45687.08955362452</v>
+        <v>45687.25889408797</v>
       </c>
       <c r="F81" s="2">
-        <v>45687.10737893646</v>
+        <v>45687.27671939992</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -6657,13 +6645,13 @@
         <v>4.675</v>
       </c>
       <c r="K81" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N81">
         <v>11300</v>
@@ -6684,16 +6672,16 @@
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V81" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W81" t="s">
         <v>26</v>
       </c>
       <c r="X81" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6707,34 +6695,34 @@
         <v>108</v>
       </c>
       <c r="D82" s="2">
-        <v>45687.10737893646</v>
+        <v>45687.27671939992</v>
       </c>
       <c r="E82" s="2">
-        <v>45687.10737893646</v>
+        <v>45687.27671939992</v>
       </c>
       <c r="F82" s="2">
-        <v>45687.16976752826</v>
+        <v>45687.30345736784</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1.497326203208556</v>
+        <v>0.6417112299465241</v>
       </c>
       <c r="J82">
         <v>4.675</v>
       </c>
       <c r="K82" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N82">
         <v>11300</v>
@@ -6755,16 +6743,16 @@
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V82" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W82" t="s">
         <v>26</v>
       </c>
       <c r="X82" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -6778,34 +6766,34 @@
         <v>109</v>
       </c>
       <c r="D83" s="2">
-        <v>45687.16976752826</v>
+        <v>45687.30345736784</v>
       </c>
       <c r="E83" s="2">
-        <v>45687.16976752826</v>
+        <v>45687.30345736784</v>
       </c>
       <c r="F83" s="2">
-        <v>45687.25889408797</v>
+        <v>45687.32128267978</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2.13903743315508</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="J83">
         <v>4.675</v>
       </c>
       <c r="K83" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N83">
         <v>11300</v>
@@ -6826,16 +6814,16 @@
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V83" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W83" t="s">
         <v>26</v>
       </c>
       <c r="X83" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -6849,34 +6837,34 @@
         <v>110</v>
       </c>
       <c r="D84" s="2">
-        <v>45687.25889408797</v>
+        <v>45687.32128267978</v>
       </c>
       <c r="E84" s="2">
-        <v>45687.25889408797</v>
+        <v>45687.32128267978</v>
       </c>
       <c r="F84" s="2">
-        <v>45687.27671939992</v>
+        <v>45687.33019533575</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0.427807486631016</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="J84">
         <v>4.675</v>
       </c>
       <c r="K84" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N84">
         <v>11300</v>
@@ -6897,16 +6885,16 @@
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V84" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W84" t="s">
         <v>26</v>
       </c>
       <c r="X84" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -6920,34 +6908,34 @@
         <v>111</v>
       </c>
       <c r="D85" s="2">
-        <v>45687.27671939992</v>
+        <v>45687.33019533575</v>
       </c>
       <c r="E85" s="2">
-        <v>45687.27671939992</v>
+        <v>45687.33019533575</v>
       </c>
       <c r="F85" s="2">
-        <v>45687.30345736784</v>
+        <v>45687.33910799173</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0.6417112299465241</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="J85">
         <v>4.675</v>
       </c>
       <c r="K85" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N85">
         <v>11300</v>
@@ -6968,16 +6956,16 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V85" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W85" t="s">
         <v>26</v>
       </c>
       <c r="X85" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -6991,13 +6979,13 @@
         <v>112</v>
       </c>
       <c r="D86" s="2">
-        <v>45687.30345736784</v>
+        <v>45687.33910799173</v>
       </c>
       <c r="E86" s="2">
-        <v>45687.30345736784</v>
+        <v>45687.33910799173</v>
       </c>
       <c r="F86" s="2">
-        <v>45687.32128267978</v>
+        <v>45687.35693330367</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7012,13 +7000,13 @@
         <v>4.675</v>
       </c>
       <c r="K86" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N86">
         <v>11300</v>
@@ -7039,16 +7027,16 @@
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V86" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W86" t="s">
         <v>26</v>
       </c>
       <c r="X86" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7062,13 +7050,13 @@
         <v>113</v>
       </c>
       <c r="D87" s="2">
-        <v>45687.32128267978</v>
+        <v>45687.35693330367</v>
       </c>
       <c r="E87" s="2">
-        <v>45687.32128267978</v>
+        <v>45687.35693330367</v>
       </c>
       <c r="F87" s="2">
-        <v>45687.33019533575</v>
+        <v>45687.36584595964</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -7083,13 +7071,13 @@
         <v>4.675</v>
       </c>
       <c r="K87" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N87">
         <v>11300</v>
@@ -7110,16 +7098,16 @@
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V87" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W87" t="s">
         <v>26</v>
       </c>
       <c r="X87" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7133,34 +7121,34 @@
         <v>114</v>
       </c>
       <c r="D88" s="2">
-        <v>45687.33019533575</v>
+        <v>45687.36584595964</v>
       </c>
       <c r="E88" s="2">
-        <v>45687.33019533575</v>
+        <v>45687.36584595964</v>
       </c>
       <c r="F88" s="2">
-        <v>45687.33910799173</v>
+        <v>45687.38367127159</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0.213903743315508</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="J88">
         <v>4.675</v>
       </c>
       <c r="K88" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N88">
         <v>11300</v>
@@ -7181,16 +7169,16 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V88" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W88" t="s">
         <v>26</v>
       </c>
       <c r="X88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7204,34 +7192,34 @@
         <v>115</v>
       </c>
       <c r="D89" s="2">
-        <v>45687.33910799173</v>
+        <v>45687.38367127159</v>
       </c>
       <c r="E89" s="2">
-        <v>45687.33910799173</v>
+        <v>45687.38367127159</v>
       </c>
       <c r="F89" s="2">
-        <v>45687.35693330367</v>
+        <v>45687.39258392755</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0.427807486631016</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="J89">
         <v>4.675</v>
       </c>
       <c r="K89" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N89">
         <v>11300</v>
@@ -7252,16 +7240,16 @@
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V89" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W89" t="s">
         <v>26</v>
       </c>
       <c r="X89" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7275,13 +7263,13 @@
         <v>116</v>
       </c>
       <c r="D90" s="2">
-        <v>45687.35693330367</v>
+        <v>45687.39258392755</v>
       </c>
       <c r="E90" s="2">
-        <v>45687.35693330367</v>
+        <v>45687.39258392755</v>
       </c>
       <c r="F90" s="2">
-        <v>45687.36584595964</v>
+        <v>45687.40149658353</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -7296,13 +7284,13 @@
         <v>4.675</v>
       </c>
       <c r="K90" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N90">
         <v>11300</v>
@@ -7323,16 +7311,16 @@
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V90" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W90" t="s">
         <v>26</v>
       </c>
       <c r="X90" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7346,13 +7334,13 @@
         <v>117</v>
       </c>
       <c r="D91" s="2">
-        <v>45687.36584595964</v>
+        <v>45687.40149658353</v>
       </c>
       <c r="E91" s="2">
-        <v>45687.36584595964</v>
+        <v>45687.40149658353</v>
       </c>
       <c r="F91" s="2">
-        <v>45687.38367127159</v>
+        <v>45687.41932189548</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7367,13 +7355,13 @@
         <v>4.675</v>
       </c>
       <c r="K91" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N91">
         <v>11300</v>
@@ -7394,60 +7382,60 @@
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V91" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W91" t="s">
         <v>26</v>
       </c>
       <c r="X91" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>118</v>
       </c>
       <c r="D92" s="2">
-        <v>45687.38367127159</v>
+        <v>45687.41932189548</v>
       </c>
       <c r="E92" s="2">
-        <v>45687.38367127159</v>
+        <v>45687.41932189548</v>
       </c>
       <c r="F92" s="2">
-        <v>45687.39258392755</v>
+        <v>45687.63807189548</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0.213903743315508</v>
+        <v>5.25</v>
       </c>
       <c r="J92">
-        <v>4.675</v>
+        <v>600</v>
       </c>
       <c r="K92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N92">
-        <v>11300</v>
+        <v>3150</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -7465,60 +7453,60 @@
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="V92" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W92" t="s">
         <v>26</v>
       </c>
       <c r="X92" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
         <v>119</v>
       </c>
       <c r="D93" s="2">
-        <v>45687.39258392755</v>
+        <v>45687.63807189548</v>
       </c>
       <c r="E93" s="2">
-        <v>45687.39258392755</v>
+        <v>45687.63807189548</v>
       </c>
       <c r="F93" s="2">
-        <v>45687.40149658353</v>
+        <v>45687.83946078437</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0.213903743315508</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="J93">
-        <v>4.675</v>
+        <v>600</v>
       </c>
       <c r="K93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N93">
-        <v>11300</v>
+        <v>2900</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -7536,60 +7524,60 @@
         <v>0</v>
       </c>
       <c r="U93" t="s">
+        <v>29</v>
+      </c>
+      <c r="V93" t="s">
         <v>185</v>
       </c>
-      <c r="V93" t="s">
-        <v>189</v>
-      </c>
       <c r="W93" t="s">
         <v>26</v>
       </c>
       <c r="X93" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="2">
-        <v>45687.40149658353</v>
+        <v>45687.83946078437</v>
       </c>
       <c r="E94" s="2">
-        <v>45687.40149658353</v>
+        <v>45687.83946078437</v>
       </c>
       <c r="F94" s="2">
-        <v>45687.41932189548</v>
+        <v>45688.01932189547</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0.427807486631016</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="J94">
-        <v>4.675</v>
+        <v>600</v>
       </c>
       <c r="K94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N94">
-        <v>11300</v>
+        <v>2600</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -7607,16 +7595,16 @@
         <v>0</v>
       </c>
       <c r="U94" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="V94" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W94" t="s">
         <v>26</v>
       </c>
       <c r="X94" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -7630,13 +7618,13 @@
         <v>121</v>
       </c>
       <c r="D95" s="2">
-        <v>45687.41932189548</v>
+        <v>45688.01932189547</v>
       </c>
       <c r="E95" s="2">
-        <v>45687.41932189548</v>
+        <v>45688.01932189547</v>
       </c>
       <c r="F95" s="2">
-        <v>45687.63807189548</v>
+        <v>45688.19293300658</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -7645,22 +7633,22 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>5.25</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J95">
         <v>600</v>
       </c>
       <c r="K95" t="s">
+        <v>125</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
         <v>128</v>
       </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95" t="s">
-        <v>134</v>
-      </c>
       <c r="N95">
-        <v>3150</v>
+        <v>2500</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -7681,13 +7669,13 @@
         <v>29</v>
       </c>
       <c r="V95" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W95" t="s">
         <v>26</v>
       </c>
       <c r="X95" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -7701,13 +7689,13 @@
         <v>122</v>
       </c>
       <c r="D96" s="2">
-        <v>45687.63807189548</v>
+        <v>45688.19293300658</v>
       </c>
       <c r="E96" s="2">
-        <v>45687.63807189548</v>
+        <v>45688.19293300658</v>
       </c>
       <c r="F96" s="2">
-        <v>45687.83946078437</v>
+        <v>45688.20334967325</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -7716,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>4.833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="J96">
         <v>600</v>
       </c>
       <c r="K96" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -7731,7 +7719,7 @@
         <v>135</v>
       </c>
       <c r="N96">
-        <v>2900</v>
+        <v>150</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -7752,226 +7740,13 @@
         <v>29</v>
       </c>
       <c r="V96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W96" t="s">
         <v>26</v>
       </c>
       <c r="X96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
-      <c r="A97" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D97" s="2">
-        <v>45687.83946078437</v>
-      </c>
-      <c r="E97" s="2">
-        <v>45687.83946078437</v>
-      </c>
-      <c r="F97" s="2">
-        <v>45688.01932189547</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="J97">
-        <v>600</v>
-      </c>
-      <c r="K97" t="s">
-        <v>128</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97" t="s">
-        <v>138</v>
-      </c>
-      <c r="N97">
-        <v>2600</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="U97" t="s">
-        <v>29</v>
-      </c>
-      <c r="V97" t="s">
-        <v>189</v>
-      </c>
-      <c r="W97" t="s">
-        <v>26</v>
-      </c>
-      <c r="X97" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
-      <c r="A98" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98" t="s">
-        <v>44</v>
-      </c>
-      <c r="C98" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="2">
-        <v>45688.01932189547</v>
-      </c>
-      <c r="E98" s="2">
-        <v>45688.01932189547</v>
-      </c>
-      <c r="F98" s="2">
-        <v>45688.19293300658</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="J98">
-        <v>600</v>
-      </c>
-      <c r="K98" t="s">
-        <v>128</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98" t="s">
-        <v>132</v>
-      </c>
-      <c r="N98">
-        <v>2500</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="U98" t="s">
-        <v>29</v>
-      </c>
-      <c r="V98" t="s">
-        <v>189</v>
-      </c>
-      <c r="W98" t="s">
-        <v>26</v>
-      </c>
-      <c r="X98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24">
-      <c r="A99" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" t="s">
-        <v>44</v>
-      </c>
-      <c r="C99" t="s">
-        <v>125</v>
-      </c>
-      <c r="D99" s="2">
-        <v>45688.19293300658</v>
-      </c>
-      <c r="E99" s="2">
-        <v>45688.19293300658</v>
-      </c>
-      <c r="F99" s="2">
-        <v>45688.20334967325</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0.25</v>
-      </c>
-      <c r="J99">
-        <v>600</v>
-      </c>
-      <c r="K99" t="s">
-        <v>128</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99" t="s">
-        <v>139</v>
-      </c>
-      <c r="N99">
-        <v>150</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="U99" t="s">
-        <v>29</v>
-      </c>
-      <c r="V99" t="s">
-        <v>189</v>
-      </c>
-      <c r="W99" t="s">
-        <v>26</v>
-      </c>
-      <c r="X99" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
